--- a/Pipeline.xlsx
+++ b/Pipeline.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>Nurse</t>
   </si>
@@ -36,9 +36,6 @@
     <t>ICU</t>
   </si>
   <si>
-    <t>Cath Lab</t>
-  </si>
-  <si>
     <t>FL</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Pheonix</t>
   </si>
   <si>
-    <t>Trisha O'toole</t>
-  </si>
-  <si>
     <t>Lisa Coldewey</t>
   </si>
   <si>
@@ -150,21 +144,6 @@
     <t>Council Bluffs</t>
   </si>
   <si>
-    <t>Cassie Brown</t>
-  </si>
-  <si>
-    <t>Jupiter</t>
-  </si>
-  <si>
-    <t>Also wants AZ TX CO and GA</t>
-  </si>
-  <si>
-    <t>Tina Martin</t>
-  </si>
-  <si>
-    <t>Asheboro</t>
-  </si>
-  <si>
     <t>Margen Wait</t>
   </si>
   <si>
@@ -193,6 +172,93 @@
   </si>
   <si>
     <t>Blocked scheduling</t>
+  </si>
+  <si>
+    <t>Jennifer Murden</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Andrea hall</t>
+  </si>
+  <si>
+    <t>Walpole</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Cheryl Mecom</t>
+  </si>
+  <si>
+    <t>Dialysis RN</t>
+  </si>
+  <si>
+    <t>Van Buren</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Michelle Knight</t>
+  </si>
+  <si>
+    <t>Psych RN</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Wound Care RN</t>
+  </si>
+  <si>
+    <t>Lakeland</t>
+  </si>
+  <si>
+    <t>Beverly Manno</t>
+  </si>
+  <si>
+    <t>compact state</t>
+  </si>
+  <si>
+    <t>Amber Lawson</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Peabody</t>
+  </si>
+  <si>
+    <t>Katia Ridore</t>
+  </si>
+  <si>
+    <t>Winter Park</t>
+  </si>
+  <si>
+    <t>Walk through State</t>
+  </si>
+  <si>
+    <t>Heather Bales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICU </t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Dana Younger</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
   </si>
 </sst>
 </file>
@@ -648,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,6 +725,7 @@
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="54.7109375" customWidth="1"/>
@@ -673,19 +740,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -694,21 +761,21 @@
         <v>4</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>37501</v>
@@ -717,7 +784,7 @@
         <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="8">
         <v>43416</v>
@@ -726,21 +793,21 @@
         <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>29572</v>
@@ -749,7 +816,7 @@
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="8">
         <v>43416</v>
@@ -758,21 +825,21 @@
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>29229</v>
@@ -781,7 +848,7 @@
         <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="8">
         <v>43444</v>
@@ -790,21 +857,21 @@
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
       </c>
       <c r="E5">
         <v>85001</v>
@@ -813,7 +880,7 @@
         <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="8">
         <v>43444</v>
@@ -824,217 +891,394 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>29229</v>
+        <v>51503</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H6" s="8">
         <v>43416</v>
       </c>
       <c r="I6">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E7">
-        <v>51503</v>
+        <v>89027</v>
       </c>
       <c r="F7">
         <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H7" s="8">
-        <v>43416</v>
+        <v>43444</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>33458</v>
+        <v>49202</v>
       </c>
       <c r="F8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H8" s="8">
-        <v>43430</v>
+        <v>43437</v>
       </c>
       <c r="I8">
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>27203</v>
+        <v>28779</v>
       </c>
       <c r="F9">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="8">
-        <v>43416</v>
+        <v>43409</v>
       </c>
       <c r="I9">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10">
-        <v>89027</v>
+        <v>1960</v>
       </c>
       <c r="F10">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H10" s="8">
-        <v>43444</v>
+        <v>43437</v>
       </c>
       <c r="I10">
-        <v>34</v>
-      </c>
-      <c r="J10" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E11">
-        <v>49202</v>
+        <v>4573</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H11" s="8">
-        <v>43437</v>
+        <v>43444</v>
       </c>
       <c r="I11">
-        <v>48</v>
-      </c>
-      <c r="J11" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>28779</v>
+        <v>72956</v>
       </c>
       <c r="F12">
         <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H12" s="8">
-        <v>43409</v>
+        <v>43437</v>
       </c>
       <c r="I12">
         <v>45</v>
       </c>
-      <c r="J12" t="s">
-        <v>58</v>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>91504</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="8">
+        <v>43437</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>33809</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="8">
+        <v>43437</v>
+      </c>
+      <c r="I14">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15">
+        <v>94203</v>
+      </c>
+      <c r="F15">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="8">
+        <v>43101</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>32708</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="8">
+        <v>43107</v>
+      </c>
+      <c r="I16">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <v>98101</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="8">
+        <v>43121</v>
+      </c>
+      <c r="I17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>28403</v>
+      </c>
+      <c r="F18">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="8">
+        <v>43437</v>
+      </c>
+      <c r="I18">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
